--- a/CE DATA/BEACONS.xlsx
+++ b/CE DATA/BEACONS.xlsx
@@ -318,13 +318,13 @@
     <t>Small Seminar Hall(L16)</t>
   </si>
   <si>
-    <t>?(L7)</t>
-  </si>
-  <si>
-    <t>?(L22)</t>
-  </si>
-  <si>
-    <t>?(L23)</t>
+    <t>Outside DLD Lab(L7)</t>
+  </si>
+  <si>
+    <t>Outside Seminar Hall(L22)</t>
+  </si>
+  <si>
+    <t>Outside DSP Labs(L23)</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/CE DATA/BEACONS.xlsx
+++ b/CE DATA/BEACONS.xlsx
@@ -300,12 +300,6 @@
     <t>Madam Tania(L17)</t>
   </si>
   <si>
-    <t>Sir Ali Hammad(L18)</t>
-  </si>
-  <si>
-    <t>Sir Fareed(L19)</t>
-  </si>
-  <si>
     <t>Outside small seminar hall(L20)</t>
   </si>
   <si>
@@ -325,6 +319,12 @@
   </si>
   <si>
     <t>Outside DSP Labs(L23)</t>
+  </si>
+  <si>
+    <t>Sir Asim(L19)</t>
+  </si>
+  <si>
+    <t>Sir Fareed(L18)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,7 +945,7 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
@@ -996,7 +996,7 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
@@ -1013,7 +1013,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
@@ -1047,7 +1047,7 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>75</v>
@@ -1064,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
         <v>76</v>
@@ -1081,7 +1081,7 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>77</v>
@@ -1098,7 +1098,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
         <v>78</v>
@@ -1106,17 +1106,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="D27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
